--- a/biology/Zoologie/Dermolepida_albohirtum/Dermolepida_albohirtum.xlsx
+++ b/biology/Zoologie/Dermolepida_albohirtum/Dermolepida_albohirtum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dermolepida albohirtum est une espèce d'insectes coléoptères de la famille des Scarabaeidae, originaire d'Australie.
 Ces insectes parasitent les plantations de canne à sucre. Les adultes mangent les feuilles mais les plus gros dommages sont faits par les larves qui mangent les racines, tuant les plantes ou ralentissant leur croissance.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lepidioderma lansbergei Brenske, 1894
 Lepidioderma waterhousei Brenske, 1894
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont de couleur blanche avec des taches noires et, souvent, dégagent une odeur de viande de porc pourri.
 Les larves sont de petits vers blancs.
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de cette espèce est limitée à l'État du Queensland en Australie[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de cette espèce est limitée à l'État du Queensland en Australie.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour lutter contre ce ravageur ainsi que contre Lepidiota frenchi, autre coléoptère ravageur de la canne à sucre,  on a introduit en Australie à partir de 1935 le crapaud buffle ou crapaud des cannes (Rhinella marina). Ce crapaud était censé détruire les insectes, pour protéger les plantations de canne à sucre. Mais cela n'a pas été le cas car le cycle de vie de ces insectes les met à l'abri du batracien. Le crapaud buffle s'est tourné vers d'autres proies et est devenu à son tour une nuisance. Le gouvernement australien l'a classé comme « nuisible » en 2005[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour lutter contre ce ravageur ainsi que contre Lepidiota frenchi, autre coléoptère ravageur de la canne à sucre,  on a introduit en Australie à partir de 1935 le crapaud buffle ou crapaud des cannes (Rhinella marina). Ce crapaud était censé détruire les insectes, pour protéger les plantations de canne à sucre. Mais cela n'a pas été le cas car le cycle de vie de ces insectes les met à l'abri du batracien. Le crapaud buffle s'est tourné vers d'autres proies et est devenu à son tour une nuisance. Le gouvernement australien l'a classé comme « nuisible » en 2005.
 </t>
         </is>
       </c>
